--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value590.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value590.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.580220250513051</v>
+        <v>1.084993362426758</v>
       </c>
       <c r="B1">
-        <v>1.682090679256913</v>
+        <v>1.867357492446899</v>
       </c>
       <c r="C1">
-        <v>1.716197586866824</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.239961861761681</v>
+        <v>2.081398248672485</v>
       </c>
       <c r="E1">
-        <v>1.504982712494372</v>
+        <v>1.142563104629517</v>
       </c>
     </row>
   </sheetData>
